--- a/trending_top_stocks.xlsx
+++ b/trending_top_stocks.xlsx
@@ -58,12 +58,12 @@
     <t>JYD</t>
   </si>
   <si>
+    <t>MSFT</t>
+  </si>
+  <si>
     <t>MULN</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -85,15 +85,15 @@
     <t>BANL</t>
   </si>
   <si>
+    <t>ARBB</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
     <t>MPW</t>
   </si>
   <si>
-    <t>ARBB</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
     <t>AACT</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Jayud Global Logistics Limited</t>
   </si>
   <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
     <t>Mullen Automotive, Inc.</t>
   </si>
   <si>
-    <t>Microsoft Corporation</t>
-  </si>
-  <si>
     <t>NVIDIA Corporation</t>
   </si>
   <si>
@@ -145,15 +145,15 @@
     <t>CBL International Limited</t>
   </si>
   <si>
+    <t>ARB IOT Group Limited</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Incorporated</t>
+  </si>
+  <si>
     <t>Medical Properties Trust, Inc.</t>
   </si>
   <si>
-    <t>ARB IOT Group Limited</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Incorporated</t>
-  </si>
-  <si>
     <t>Ares Acquisition Corporation II</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>108.36M</t>
   </si>
   <si>
+    <t>2,127.14B</t>
+  </si>
+  <si>
     <t>390.21M</t>
   </si>
   <si>
-    <t>2,127.14B</t>
-  </si>
-  <si>
     <t>669.84B</t>
   </si>
   <si>
@@ -205,15 +205,15 @@
     <t>427.85M</t>
   </si>
   <si>
+    <t>122.30M</t>
+  </si>
+  <si>
+    <t>451.33B</t>
+  </si>
+  <si>
     <t>4.97B</t>
   </si>
   <si>
-    <t>122.30M</t>
-  </si>
-  <si>
-    <t>451.33B</t>
-  </si>
-  <si>
     <t>503.50M</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>26.00%</t>
   </si>
   <si>
+    <t>-0.12%</t>
+  </si>
+  <si>
     <t>21.49%</t>
   </si>
   <si>
-    <t>-0.12%</t>
-  </si>
-  <si>
     <t>0.06%</t>
   </si>
   <si>
@@ -265,15 +265,15 @@
     <t>34.75%</t>
   </si>
   <si>
+    <t>20.78%</t>
+  </si>
+  <si>
+    <t>-0.75%</t>
+  </si>
+  <si>
     <t>0.97%</t>
   </si>
   <si>
-    <t>20.78%</t>
-  </si>
-  <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
     <t>0.70%</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>5802546</t>
   </si>
   <si>
+    <t>21676387</t>
+  </si>
+  <si>
     <t>723316050</t>
   </si>
   <si>
-    <t>21676387</t>
-  </si>
-  <si>
     <t>34510277</t>
   </si>
   <si>
@@ -325,13 +325,13 @@
     <t>257918</t>
   </si>
   <si>
+    <t>1224548</t>
+  </si>
+  <si>
+    <t>2589850</t>
+  </si>
+  <si>
     <t>6699579</t>
-  </si>
-  <si>
-    <t>1224548</t>
-  </si>
-  <si>
-    <t>2589850</t>
   </si>
   <si>
     <t>-</t>
@@ -732,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -755,7 +755,7 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -778,7 +778,7 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
@@ -801,7 +801,7 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -824,7 +824,7 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -847,7 +847,7 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -870,7 +870,7 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -893,7 +893,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
@@ -939,7 +939,7 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -962,7 +962,7 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
@@ -985,7 +985,7 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
@@ -1008,7 +1008,7 @@
         <v>39</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
@@ -1031,7 +1031,7 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -1054,7 +1054,7 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
@@ -1077,7 +1077,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
@@ -1100,7 +1100,7 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
@@ -1123,7 +1123,7 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
@@ -1169,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
